--- a/Excel/LanguageZHCNConfig.xlsx
+++ b/Excel/LanguageZHCNConfig.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="27">
   <si>
     <t>Id</t>
   </si>
@@ -83,6 +83,18 @@
   </si>
   <si>
     <t>不是自己的棋子,不能取消选择</t>
+  </si>
+  <si>
+    <t>准备</t>
+  </si>
+  <si>
+    <t>取消准备</t>
+  </si>
+  <si>
+    <t>已准备</t>
+  </si>
+  <si>
+    <t>未准备</t>
   </si>
 </sst>
 </file>
@@ -90,9 +102,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
@@ -111,6 +123,21 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -118,46 +145,108 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -177,83 +266,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -270,187 +282,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -464,26 +476,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -499,6 +498,30 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -527,16 +550,16 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="double">
+      <right style="thin">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="double">
+      <top style="thin">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
+      <bottom style="thin">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -544,20 +567,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -569,10 +581,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -581,133 +593,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="25" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1064,10 +1076,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="C3:D23"/>
+  <dimension ref="C3:D27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -1240,6 +1252,38 @@
         <v>22</v>
       </c>
     </row>
+    <row r="24" spans="3:4">
+      <c r="C24">
+        <v>19</v>
+      </c>
+      <c r="D24" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="25" spans="3:4">
+      <c r="C25">
+        <v>20</v>
+      </c>
+      <c r="D25" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="26" spans="3:4">
+      <c r="C26">
+        <v>21</v>
+      </c>
+      <c r="D26" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="27" spans="3:4">
+      <c r="C27">
+        <v>22</v>
+      </c>
+      <c r="D27" t="s">
+        <v>26</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/Excel/LanguageZHCNConfig.xlsx
+++ b/Excel/LanguageZHCNConfig.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="32">
   <si>
     <t>Id</t>
   </si>
@@ -95,6 +95,21 @@
   </si>
   <si>
     <t>未准备</t>
+  </si>
+  <si>
+    <t>只能选择自己的棋子</t>
+  </si>
+  <si>
+    <t>打不赢</t>
+  </si>
+  <si>
+    <t>胜利</t>
+  </si>
+  <si>
+    <t>失败</t>
+  </si>
+  <si>
+    <t>???</t>
   </si>
 </sst>
 </file>
@@ -102,10 +117,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -123,6 +138,111 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
@@ -132,121 +252,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -260,8 +266,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -282,187 +297,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -473,17 +488,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -498,6 +502,65 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -520,54 +583,6 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
       </bottom>
@@ -581,10 +596,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -593,133 +608,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1076,10 +1091,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="C3:D27"/>
+  <dimension ref="C3:D32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="E32" sqref="E32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -1284,6 +1299,46 @@
         <v>26</v>
       </c>
     </row>
+    <row r="28" spans="3:4">
+      <c r="C28">
+        <v>23</v>
+      </c>
+      <c r="D28" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="29" spans="3:4">
+      <c r="C29">
+        <v>24</v>
+      </c>
+      <c r="D29" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="30" spans="3:4">
+      <c r="C30">
+        <v>25</v>
+      </c>
+      <c r="D30" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="31" spans="3:4">
+      <c r="C31">
+        <v>26</v>
+      </c>
+      <c r="D31" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="32" spans="3:4">
+      <c r="C32">
+        <v>27</v>
+      </c>
+      <c r="D32" t="s">
+        <v>31</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/Excel/LanguageZHCNConfig.xlsx
+++ b/Excel/LanguageZHCNConfig.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="33">
   <si>
     <t>Id</t>
   </si>
@@ -110,6 +110,9 @@
   </si>
   <si>
     <t>???</t>
+  </si>
+  <si>
+    <t>距离太远</t>
   </si>
 </sst>
 </file>
@@ -1091,10 +1094,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="C3:D32"/>
+  <dimension ref="C3:D33"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E32" sqref="E32"/>
+      <selection activeCell="C34" sqref="C34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -1339,6 +1342,14 @@
         <v>31</v>
       </c>
     </row>
+    <row r="33" spans="3:4">
+      <c r="C33">
+        <v>28</v>
+      </c>
+      <c r="D33" t="s">
+        <v>32</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/Excel/LanguageZHCNConfig.xlsx
+++ b/Excel/LanguageZHCNConfig.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="34">
   <si>
     <t>Id</t>
   </si>
@@ -113,6 +113,9 @@
   </si>
   <si>
     <t>距离太远</t>
+  </si>
+  <si>
+    <t>不是自己的回合</t>
   </si>
 </sst>
 </file>
@@ -1094,10 +1097,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="C3:D33"/>
+  <dimension ref="C3:D34"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="C34" sqref="C34"/>
+      <selection activeCell="C35" sqref="C35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -1350,6 +1353,14 @@
         <v>32</v>
       </c>
     </row>
+    <row r="34" spans="3:4">
+      <c r="C34">
+        <v>29</v>
+      </c>
+      <c r="D34" t="s">
+        <v>33</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
